--- a/app/static/Expenses form.xlsx
+++ b/app/static/Expenses form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMONIJ\PycharmProjects\flaskapp\app\static\reclaims\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMONIJ\PycharmProjects\flaskapp\app\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80947CC7-ABE8-490E-B8C2-8BF3C2E7680E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B57E1FC-1FDC-4AC2-BF71-4694665FA340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="22485" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense Claim Form 14-11-19" sheetId="1" r:id="rId1"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.6"/>
@@ -1218,64 +1218,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="073fbc88-6252-44ae-908a-619206801917">
-      <UserInfo>
-        <DisplayName>Richardson, Kirsty</DisplayName>
-        <AccountId>680</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mancuso, Alexander</DisplayName>
-        <AccountId>681</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Haselwood, Sue</DisplayName>
-        <AccountId>683</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Denisa Coakley</DisplayName>
-        <AccountId>738</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Weatherburn, Nigel</DisplayName>
-        <AccountId>1546</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Paget, Sandra</DisplayName>
-        <AccountId>220</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sullivan, Debbie</DisplayName>
-        <AccountId>405</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Health Centre</DisplayName>
-        <AccountId>591</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010604C6F5527B741898430C0DF9B3E57" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0fa6d3983bf488a1173b58999ec6787">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="073fbc88-6252-44ae-908a-619206801917" xmlns:ns3="0c9eacfb-b6c0-42d6-b7a4-849a3f5015ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78a861c1afe4ecdb52519ae86bb82aa3" ns2:_="" ns3:_="">
     <xsd:import namespace="073fbc88-6252-44ae-908a-619206801917"/>
@@ -1460,25 +1402,65 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABECB0D-0547-4C56-AE15-4086E818E02E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="073fbc88-6252-44ae-908a-619206801917">
+      <UserInfo>
+        <DisplayName>Richardson, Kirsty</DisplayName>
+        <AccountId>680</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mancuso, Alexander</DisplayName>
+        <AccountId>681</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Haselwood, Sue</DisplayName>
+        <AccountId>683</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Denisa Coakley</DisplayName>
+        <AccountId>738</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Weatherburn, Nigel</DisplayName>
+        <AccountId>1546</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Paget, Sandra</DisplayName>
+        <AccountId>220</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sullivan, Debbie</DisplayName>
+        <AccountId>405</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Health Centre</DisplayName>
+        <AccountId>591</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B47AF782-0F04-42CE-85DF-78D8B0153527}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="073fbc88-6252-44ae-908a-619206801917"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DD04481-3D31-4074-A5CE-79ADB0B25102}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1495,4 +1477,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B47AF782-0F04-42CE-85DF-78D8B0153527}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="073fbc88-6252-44ae-908a-619206801917"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ABECB0D-0547-4C56-AE15-4086E818E02E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>